--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-cyclic-sample-properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkovtun/Work/Projects/openBIS/sissource/openbis/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B88AF-7EA1-7A4D-8C44-23DA1190BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9222D479-D42C-1340-9999-8B9DDFFB1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{75C30B8F-E590-0942-81AA-3FAD886CC976}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Validation script</t>
   </si>
   <si>
-    <t>Generated Code Prefix</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Data type</t>
   </si>
   <si>
-    <t>Vocabulary Code</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>Course</t>
+  </si>
+  <si>
+    <t>Vocabulary code</t>
+  </si>
+  <si>
+    <t>Generated code prefix</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
@@ -670,31 +670,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -711,17 +711,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H5"/>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
@@ -740,17 +740,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6"/>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
@@ -769,17 +769,17 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7"/>
       <c r="I7" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7"/>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>0</v>
@@ -850,31 +850,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>1</v>
@@ -891,17 +891,17 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>1</v>
@@ -920,17 +920,17 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14"/>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -1040,31 +1040,31 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1072,26 +1072,26 @@
         <v>1</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1101,26 +1101,26 @@
         <v>1</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="C22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1130,26 +1130,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="11" t="b">
         <v>1</v>
@@ -1168,17 +1168,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="b">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
